--- a/Assignment fore scenario/Scenarios.xlsx
+++ b/Assignment fore scenario/Scenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\assignment\Module 2\Assignment fore scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2F574DC-ACF4-4300-A007-F02F350FED9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D4C68E-453E-4BA2-B5B2-F02098019BFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" firstSheet="7" activeTab="7" xr2:uid="{4540C045-54B0-4227-B158-A28884DB8BBB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" firstSheet="7" activeTab="10" xr2:uid="{4540C045-54B0-4227-B158-A28884DB8BBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Whatsapp chat" sheetId="5" r:id="rId1"/>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FB5DFB-F8CD-4C79-9FE3-E984B5F04718}">
   <dimension ref="A2:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:M6"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2270,7 +2270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E3F36C-91CF-4D66-A179-B45E179B0081}">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2547,8 +2547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C22D8F-7F59-4477-8565-512D154F2302}">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:M6"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3031,7 +3031,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="18">
         <v>13</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="62" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>11</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>18</v>
       </c>
@@ -4162,7 +4162,7 @@
   <dimension ref="A3:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="A9:C26"/>
+      <selection activeCell="F3" sqref="F3:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4436,7 +4436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C27895-2D12-4494-994F-F9047C605505}">
   <dimension ref="A3:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>

--- a/Assignment fore scenario/Scenarios.xlsx
+++ b/Assignment fore scenario/Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\assignment\Module 2\Assignment fore scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D4C68E-453E-4BA2-B5B2-F02098019BFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237543F8-5733-460E-A950-8FD4B8FFCA20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" firstSheet="7" activeTab="10" xr2:uid="{4540C045-54B0-4227-B158-A28884DB8BBB}"/>
   </bookViews>
@@ -589,66 +589,6 @@
     <t>Negative scenario</t>
   </si>
   <si>
-    <t>1. Allows quick expression of thoughts on paper.</t>
-  </si>
-  <si>
-    <t>2. Essential for writing exams.</t>
-  </si>
-  <si>
-    <t>3. Required for signing important documents.</t>
-  </si>
-  <si>
-    <t>4. Handwriting helps improve memory retention.</t>
-  </si>
-  <si>
-    <t>5. Used in drawing, sketching, and creativity.</t>
-  </si>
-  <si>
-    <t>6. Writing a diary gives mental peace.</t>
-  </si>
-  <si>
-    <t>7. Good pens improve handwriting.</t>
-  </si>
-  <si>
-    <t>8. Useful in schools, colleges, and offices.</t>
-  </si>
-  <si>
-    <t>9. Enables personal, handwritten communication.</t>
-  </si>
-  <si>
-    <t>10. Works without electricity or internet.</t>
-  </si>
-  <si>
-    <t>11. Keeps ideas private and secure.</t>
-  </si>
-  <si>
-    <t>12. Builds writing habits and vocabulary.</t>
-  </si>
-  <si>
-    <t>13. Inexpensive but highly useful.</t>
-  </si>
-  <si>
-    <t>14. Encourages learning in young children.</t>
-  </si>
-  <si>
-    <t>15. Considered a valuable gift item.</t>
-  </si>
-  <si>
-    <t>16. Adds to professional appearance.</t>
-  </si>
-  <si>
-    <t>17. Handwritten notes improve communication impact.</t>
-  </si>
-  <si>
-    <t>18. Helps jot down ideas quickly.</t>
-  </si>
-  <si>
-    <t>19. Multi-colored pens organize notes better.</t>
-  </si>
-  <si>
-    <t>20. Signature pens can reflect personal identity.</t>
-  </si>
-  <si>
     <t>Ink may smudge and ruin documents.</t>
   </si>
   <si>
@@ -763,51 +703,6 @@
     <t>17. Eco-friendly options available (paper cups, low-energy use).</t>
   </si>
   <si>
-    <t>1. Machine may stop working due to technical faults.</t>
-  </si>
-  <si>
-    <t>2. Drink may spill or overflow due to sensor errors.</t>
-  </si>
-  <si>
-    <t>3. Limited to pre-set drink types and flavors.</t>
-  </si>
-  <si>
-    <t>4. Machine may run out of ingredients (milk, coffee powder).</t>
-  </si>
-  <si>
-    <t>5. Hygiene issues if not cleaned regularly.</t>
-  </si>
-  <si>
-    <t>6. Coffee taste may not suit everyone’s preference.</t>
-  </si>
-  <si>
-    <t>7. Hot beverages may spill and cause burns.</t>
-  </si>
-  <si>
-    <t>8. Coins or cash may get stuck in the machine.</t>
-  </si>
-  <si>
-    <t>9. Cup may not dispense, but coffee still pours.</t>
-  </si>
-  <si>
-    <t>10. Machine may be too slow during peak hours.</t>
-  </si>
-  <si>
-    <t>11. Noisy operation may disturb nearby users.</t>
-  </si>
-  <si>
-    <t>12. Requires electricity – doesn’t work during power cuts.</t>
-  </si>
-  <si>
-    <t>13. Sometimes dispenses cold coffee instead of hot.</t>
-  </si>
-  <si>
-    <t>14. Faulty touchpad or buttons can confuse users.</t>
-  </si>
-  <si>
-    <t>15. Vandalism or misuse in public places.</t>
-  </si>
-  <si>
     <t>Allows 24/7 access to cash withdrawals.</t>
   </si>
   <si>
@@ -1112,6 +1007,111 @@
   </si>
   <si>
     <t>senario fore Door</t>
+  </si>
+  <si>
+    <t>Allows quick expression of thoughts on paper.</t>
+  </si>
+  <si>
+    <t>Essential for writing exams.</t>
+  </si>
+  <si>
+    <t>Required for signing important documents.</t>
+  </si>
+  <si>
+    <t>Handwriting helps improve memory retention.</t>
+  </si>
+  <si>
+    <t>Used in drawing, sketching, and creativity.</t>
+  </si>
+  <si>
+    <t>Writing a diary gives mental peace.</t>
+  </si>
+  <si>
+    <t>Good pens improve handwriting.</t>
+  </si>
+  <si>
+    <t>Useful in schools, colleges, and offices.</t>
+  </si>
+  <si>
+    <t>Enables personal, handwritten communication.</t>
+  </si>
+  <si>
+    <t>Works without electricity or internet.</t>
+  </si>
+  <si>
+    <t>Keeps ideas private and secure.</t>
+  </si>
+  <si>
+    <t>Builds writing habits and vocabulary.</t>
+  </si>
+  <si>
+    <t>Inexpensive but highly useful.</t>
+  </si>
+  <si>
+    <t>Encourages learning in young children.</t>
+  </si>
+  <si>
+    <t>Considered a valuable gift item.</t>
+  </si>
+  <si>
+    <t>Adds to professional appearance.</t>
+  </si>
+  <si>
+    <t>Handwritten notes improve communication impact.</t>
+  </si>
+  <si>
+    <t>Helps jot down ideas quickly.</t>
+  </si>
+  <si>
+    <t>Multi-colored pens organize notes better.</t>
+  </si>
+  <si>
+    <t>Signature pens can reflect personal identity.</t>
+  </si>
+  <si>
+    <t>Machine may stop working due to technical faults.</t>
+  </si>
+  <si>
+    <t>Drink may spill or overflow due to sensor errors.</t>
+  </si>
+  <si>
+    <t>Limited to pre-set drink types and flavors.</t>
+  </si>
+  <si>
+    <t>Machine may run out of ingredients (milk, coffee powder).</t>
+  </si>
+  <si>
+    <t>Hygiene issues if not cleaned regularly.</t>
+  </si>
+  <si>
+    <t>Coffee taste may not suit everyone’s preference.</t>
+  </si>
+  <si>
+    <t>Hot beverages may spill and cause burns.</t>
+  </si>
+  <si>
+    <t>Coins or cash may get stuck in the machine.</t>
+  </si>
+  <si>
+    <t>Cup may not dispense, but coffee still pours.</t>
+  </si>
+  <si>
+    <t>Machine may be too slow during peak hours.</t>
+  </si>
+  <si>
+    <t>Noisy operation may disturb nearby users.</t>
+  </si>
+  <si>
+    <t>Requires electricity – doesn’t work during power cuts.</t>
+  </si>
+  <si>
+    <t>Sometimes dispenses cold coffee instead of hot.</t>
+  </si>
+  <si>
+    <t>Faulty touchpad or buttons can confuse users.</t>
+  </si>
+  <si>
+    <t>Vandalism or misuse in public places.</t>
   </si>
 </sst>
 </file>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FB5DFB-F8CD-4C79-9FE3-E984B5F04718}">
   <dimension ref="A2:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1753,7 +1753,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -1985,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DADE46-6AC7-4B34-AACF-7640150EF6F4}">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1998,7 +1998,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>134</v>
@@ -2042,219 +2042,219 @@
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2282,7 +2282,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="31" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>134</v>
@@ -2342,10 +2342,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="58" x14ac:dyDescent="0.35">
@@ -2353,10 +2353,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="58" x14ac:dyDescent="0.35">
@@ -2364,10 +2364,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="58" x14ac:dyDescent="0.35">
@@ -2375,10 +2375,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="58" x14ac:dyDescent="0.35">
@@ -2386,10 +2386,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="58" x14ac:dyDescent="0.35">
@@ -2397,10 +2397,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="58" x14ac:dyDescent="0.35">
@@ -2408,10 +2408,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -2419,10 +2419,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -2430,10 +2430,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -2441,10 +2441,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -2452,10 +2452,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -2463,10 +2463,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -2474,10 +2474,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -2485,10 +2485,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -2496,10 +2496,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -2507,10 +2507,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -2518,10 +2518,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -2529,10 +2529,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2547,8 +2547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C22D8F-7F59-4477-8565-512D154F2302}">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2612,10 +2612,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="74" x14ac:dyDescent="0.45">
@@ -2623,10 +2623,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="55.5" x14ac:dyDescent="0.45">
@@ -2634,10 +2634,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="74" x14ac:dyDescent="0.45">
@@ -2645,21 +2645,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="74" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:13" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A13" s="7">
         <v>5</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="55.5" x14ac:dyDescent="0.45">
@@ -2667,10 +2667,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="74" x14ac:dyDescent="0.45">
@@ -2678,10 +2678,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="74" x14ac:dyDescent="0.45">
@@ -2689,21 +2689,21 @@
         <v>8</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="74" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:3" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A17" s="7">
         <v>9</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="74" x14ac:dyDescent="0.45">
@@ -2711,10 +2711,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="55.5" x14ac:dyDescent="0.45">
@@ -2722,10 +2722,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="92.5" x14ac:dyDescent="0.45">
@@ -2733,10 +2733,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="55.5" x14ac:dyDescent="0.45">
@@ -2744,10 +2744,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="74" x14ac:dyDescent="0.45">
@@ -2755,10 +2755,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="74" x14ac:dyDescent="0.45">
@@ -2766,10 +2766,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="74" x14ac:dyDescent="0.45">
@@ -2777,10 +2777,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="74" x14ac:dyDescent="0.45">
@@ -2788,10 +2788,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="55.5" x14ac:dyDescent="0.45">
@@ -2799,10 +2799,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="92.5" x14ac:dyDescent="0.45">
@@ -2810,10 +2810,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="74" x14ac:dyDescent="0.45">
@@ -2821,10 +2821,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -2842,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8856AA9-27F9-410A-A9EB-2EBDDC4A78E0}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H4"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3131,8 +3131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD543492-5B81-48D3-9E5C-451BFFC03C3B}">
   <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3143,7 +3143,7 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C2" s="26" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -3514,8 +3514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB11F4EF-F798-4441-B8DF-A28ECBCF9ECF}">
   <dimension ref="A2:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:M5"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3527,7 +3527,7 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I2" s="22" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -3557,13 +3557,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>133</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
@@ -3583,10 +3583,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
@@ -3594,10 +3594,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -3605,10 +3605,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -3616,10 +3616,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -3627,10 +3627,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -3638,10 +3638,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
@@ -3649,10 +3649,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -3660,10 +3660,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -3671,10 +3671,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -3682,10 +3682,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -3693,10 +3693,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -3704,10 +3704,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -3715,10 +3715,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -3726,10 +3726,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -3737,10 +3737,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -3748,10 +3748,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -3759,10 +3759,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -3770,10 +3770,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -3781,10 +3781,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3799,8 +3799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A91231-5C6E-49FC-A9C1-102C73C3D449}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3868,285 +3868,285 @@
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4161,8 +4161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D05F54F-037B-4EB3-97E6-95A81C2C3D65}">
   <dimension ref="A3:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:N7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4174,7 +4174,7 @@
   <sheetData>
     <row r="3" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F3" s="29" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
@@ -4231,10 +4231,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>1</v>
@@ -4246,10 +4246,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>242</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
@@ -4257,10 +4257,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>243</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
@@ -4268,10 +4268,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>244</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="58" x14ac:dyDescent="0.35">
@@ -4279,10 +4279,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>245</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
@@ -4290,10 +4290,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>246</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="58" x14ac:dyDescent="0.35">
@@ -4301,10 +4301,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>247</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
@@ -4312,10 +4312,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>248</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -4323,10 +4323,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>249</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -4334,10 +4334,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>250</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -4345,21 +4345,21 @@
         <v>10</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>11</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>252</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -4367,10 +4367,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>253</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -4378,21 +4378,21 @@
         <v>13</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>14</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>255</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -4400,10 +4400,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>256</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -4411,7 +4411,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C25" s="10"/>
     </row>
@@ -4420,7 +4420,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C26" s="10"/>
     </row>
@@ -4436,8 +4436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C27895-2D12-4494-994F-F9047C605505}">
   <dimension ref="A3:G30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4448,7 +4448,7 @@
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3" s="29" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -4723,8 +4723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E605B59-22CD-4BBD-B464-68F8168EC2D9}">
   <dimension ref="A2:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4736,7 +4736,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -4778,10 +4778,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>133</v>
@@ -4792,10 +4792,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -4804,10 +4804,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -4816,10 +4816,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -4828,10 +4828,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -4840,10 +4840,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -4852,10 +4852,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -4864,10 +4864,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -4876,10 +4876,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -4888,10 +4888,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="D18" s="4"/>
     </row>
@@ -4900,10 +4900,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="D19" s="4"/>
     </row>
@@ -4912,10 +4912,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -4924,10 +4924,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -4936,10 +4936,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -4948,10 +4948,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -4960,10 +4960,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="D24" s="4"/>
     </row>
@@ -4972,10 +4972,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -4984,10 +4984,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -4996,10 +4996,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="D27" s="4"/>
     </row>
@@ -5008,10 +5008,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="D28" s="4"/>
     </row>
@@ -5020,10 +5020,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="D29" s="4"/>
     </row>
@@ -5032,10 +5032,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="D30" s="4"/>
     </row>
@@ -5044,10 +5044,10 @@
         <v>22</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="D31" s="4"/>
     </row>
